--- a/Data Files/DataFiles.xlsx
+++ b/Data Files/DataFiles.xlsx
@@ -3,14 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56A62FE1-DB27-4B7A-91E7-E477203FFE4F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2809E30-E054-48E3-85D9-9854CA91063F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Matriks 001" sheetId="1" r:id="rId1"/>
-    <sheet name="Matriks 003" sheetId="3" r:id="rId2"/>
-    <sheet name="notes" sheetId="2" r:id="rId3"/>
+    <sheet name="KategoriPlafond" sheetId="4" r:id="rId1"/>
+    <sheet name="NamaGroupKonsumen" sheetId="5" r:id="rId2"/>
+    <sheet name="RegisterPlafond" sheetId="7" r:id="rId3"/>
+    <sheet name="Matriks 001" sheetId="1" r:id="rId4"/>
+    <sheet name="Matriks 003" sheetId="3" r:id="rId5"/>
+    <sheet name="Matriks 004" sheetId="6" r:id="rId6"/>
+    <sheet name="notes" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="77">
   <si>
     <t>No</t>
   </si>
@@ -164,12 +168,6 @@
     <t>SharingPlafond</t>
   </si>
   <si>
-    <t>Individu</t>
-  </si>
-  <si>
-    <t>Corporate</t>
-  </si>
-  <si>
     <t>PT Sigma</t>
   </si>
   <si>
@@ -201,6 +199,132 @@
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NamaGroupKonsumen</t>
+  </si>
+  <si>
+    <t>plaf uat automated</t>
+  </si>
+  <si>
+    <t>plaf testing automated</t>
+  </si>
+  <si>
+    <t>uat tester automated</t>
+  </si>
+  <si>
+    <t>testing qa automated</t>
+  </si>
+  <si>
+    <t>PERORANGAN</t>
+  </si>
+  <si>
+    <t>CORPORATE</t>
+  </si>
+  <si>
+    <t>PlafondSharing</t>
+  </si>
+  <si>
+    <t>JenisKosumenSharing</t>
+  </si>
+  <si>
+    <t>NamaSharing</t>
+  </si>
+  <si>
+    <t>KategoriPlafondSharing</t>
+  </si>
+  <si>
+    <t>NominalPlafondAnak</t>
+  </si>
+  <si>
+    <t>Plafond</t>
+  </si>
+  <si>
+    <t>skibidi qa</t>
+  </si>
+  <si>
+    <t>PT Tahu Tempe</t>
+  </si>
+  <si>
+    <t>bca uat qa auto</t>
+  </si>
+  <si>
+    <t>bcai qa auto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bad day qa </t>
+  </si>
+  <si>
+    <t>Sesuai Plafond Group</t>
+  </si>
+  <si>
+    <t>PERORANGAN;CORPORATE</t>
+  </si>
+  <si>
+    <t>NoKTP</t>
+  </si>
+  <si>
+    <t>NoNPWP</t>
+  </si>
+  <si>
+    <t>StartDate</t>
+  </si>
+  <si>
+    <t>EndDate</t>
+  </si>
+  <si>
+    <t>JenisKonsumenSharing</t>
+  </si>
+  <si>
+    <t>NoSharing</t>
+  </si>
+  <si>
+    <t>123456789</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2025-02-21</t>
+  </si>
+  <si>
+    <t>BEKASI;DIRECT SALES BEKASI;KKB BEKASI</t>
+  </si>
+  <si>
+    <t>tes otomasi satu</t>
+  </si>
+  <si>
+    <t>1234567890123453</t>
+  </si>
+  <si>
+    <t>tes otomasi dua</t>
+  </si>
+  <si>
+    <t>tes otomasi tiga</t>
+  </si>
+  <si>
+    <t>2024-11-21</t>
+  </si>
+  <si>
+    <t>2025-02-22</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2025-02-23</t>
+  </si>
+  <si>
+    <t>PERORANGAN;PERORANGAN;CORPORATE;PERORANGAN;CORPORATE</t>
+  </si>
+  <si>
+    <t>1234567890123454</t>
+  </si>
+  <si>
+    <t>1234567890123455;1234567890123456;123456781;1234567890123457;123456782</t>
+  </si>
+  <si>
+    <t>400000000;Sesuai;1000000000;200000000;100000000</t>
   </si>
 </sst>
 </file>
@@ -250,7 +374,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,12 +382,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,14 +410,41 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -609,11 +775,345 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC14F4D2-8ECC-4D72-960B-28E7FE1005BC}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B92CEA6-7EB3-4E67-ADC3-582897810806}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25ECFCDD-09DB-4377-A8E4-8C16E4628B15}">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="37.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="26.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="28.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="O4" s="12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -651,7 +1151,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>8</v>
@@ -671,7 +1171,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>8</v>
@@ -732,12 +1232,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A667C491-D5E8-401F-8825-E7558A8507E2}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -749,9 +1249,14 @@
     <col min="6" max="6" width="28.5703125" customWidth="1"/>
     <col min="7" max="7" width="18.42578125" customWidth="1"/>
     <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="9" max="9" width="26.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -776,91 +1281,267 @@
       <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>34</v>
+      <c r="F2" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I2" s="3"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>33</v>
+      <c r="F4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE9F681-AF53-45CE-88A0-88818F1B2FAF}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="1">
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1">
+        <v>200000000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="1">
+        <v>100000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{801DD011-8610-451E-A746-9CA307014FFC}">
   <dimension ref="A1:R8"/>
   <sheetViews>
@@ -871,62 +1552,62 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="O3" s="4" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="3">
